--- a/MVP/SHOPPING_LISTS/HIWIN.xlsx
+++ b/MVP/SHOPPING_LISTS/HIWIN.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -49,12 +49,6 @@
     <t>13-018210</t>
   </si>
   <si>
-    <t>13-018212</t>
-  </si>
-  <si>
-    <t>13-018213</t>
-  </si>
-  <si>
     <t>13-018276</t>
   </si>
   <si>
@@ -67,12 +61,6 @@
     <t>MVP-PRT: BIG SLIDER</t>
   </si>
   <si>
-    <t>MVP-PRT: SMALL RAIL</t>
-  </si>
-  <si>
-    <t>MVP-PRT: SMALL SLIDER</t>
-  </si>
-  <si>
     <t>MVP-PRT: DEKSEL RAIL</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
   </si>
   <si>
     <t>MGW15C1R250Z0CM</t>
-  </si>
-  <si>
-    <t>MGN15C1R92Z0CM</t>
   </si>
   <si>
     <t>MGN09C1R60Z0HM</t>
@@ -463,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -520,13 +505,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -534,101 +519,61 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="1">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="1">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1">
         <v>1</v>
       </c>
     </row>
